--- a/data/trans_orig/Q17F_D_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74FC27E0-0841-4F81-A478-B73D742DEA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27F3167-9781-470D-8CC9-08B971495F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6961D1A0-1A12-411A-92E5-14BC54CFF7B1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74D0B195-8BFE-43E8-8C83-396B37DE82FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2007 (Tasa respuesta: 23,85%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="635">
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2007 (Tasa respuesta: 23,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>17,48%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>82,52%</t>
   </si>
   <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,49 +140,55 @@
     <t>26,12%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>31,72%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>68,28%</t>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -191,55 +197,55 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>91,61%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -248,1678 +254,1696 @@
     <t>21,15%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>5,26%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2012 (Tasa respuesta: 26,39%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2016 (Tasa respuesta: 27,46%)</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2012 (Tasa respuesta: 26,39%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2016 (Tasa respuesta: 27,46%)</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2023 (Tasa respuesta: 22,27%)</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2023 (Tasa respuesta: 22,27%)</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>90,28%</t>
   </si>
   <si>
     <t>42,82%</t>
   </si>
   <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
+    <t>52,55%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
   </si>
   <si>
     <t>57,18%</t>
   </si>
   <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
+    <t>47,45%</t>
   </si>
   <si>
     <t>57,17%</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>41,15%</t>
   </si>
   <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>37,85%</t>
   </si>
   <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>35,9%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
   </si>
   <si>
     <t>62,15%</t>
   </si>
   <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6C59F6-E05D-4771-9132-ED25BEBA8152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A184BB-312B-4ED1-9219-C1C094E54427}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2628,10 +2652,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -2640,13 +2664,13 @@
         <v>54463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2685,13 @@
         <v>63773</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
@@ -2676,13 +2700,13 @@
         <v>100339</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>160</v>
@@ -2691,13 +2715,13 @@
         <v>164112</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2777,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2765,13 +2789,13 @@
         <v>4574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2780,13 +2804,13 @@
         <v>6683</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2795,13 +2819,13 @@
         <v>11257</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2840,13 @@
         <v>49968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>91</v>
@@ -2831,13 +2855,13 @@
         <v>91948</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>141</v>
@@ -2846,13 +2870,13 @@
         <v>141916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,7 +2932,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2920,13 +2944,13 @@
         <v>10106</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2935,13 +2959,13 @@
         <v>4537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2950,13 +2974,13 @@
         <v>14644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2995,13 @@
         <v>37673</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -2986,13 +3010,13 @@
         <v>107340</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>150</v>
@@ -3001,13 +3025,13 @@
         <v>145012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3087,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3075,13 +3099,13 @@
         <v>6023</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -3090,13 +3114,13 @@
         <v>13785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -3105,13 +3129,13 @@
         <v>19808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3150,13 @@
         <v>33337</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3141,13 +3165,13 @@
         <v>49614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -3156,13 +3180,13 @@
         <v>82951</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3242,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3230,13 +3254,13 @@
         <v>2022</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3245,13 +3269,13 @@
         <v>10233</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -3260,13 +3284,13 @@
         <v>12255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3305,13 @@
         <v>43861</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -3296,13 +3320,13 @@
         <v>69425</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>113</v>
@@ -3311,10 +3335,10 @@
         <v>113286</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>123</v>
@@ -3692,7 +3716,7 @@
         <v>103</v>
       </c>
       <c r="D28" s="7">
-        <v>100900</v>
+        <v>100901</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>162</v>
@@ -3794,7 +3818,7 @@
         <v>608</v>
       </c>
       <c r="D30" s="7">
-        <v>605083</v>
+        <v>605084</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3862,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFB685F-36B9-44A8-9743-065A9A53502C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AE57A9-6922-47B8-9F34-1F6DC92536CC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4266,7 +4290,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4296,10 +4320,10 @@
         <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4308,13 +4332,13 @@
         <v>24056</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4353,13 @@
         <v>74297</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>120</v>
@@ -4344,13 +4368,13 @@
         <v>128176</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>192</v>
@@ -4359,13 +4383,13 @@
         <v>202473</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,7 +4445,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4433,13 +4457,13 @@
         <v>21458</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4448,13 +4472,13 @@
         <v>23384</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -4463,13 +4487,13 @@
         <v>44843</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4508,13 @@
         <v>103318</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>166</v>
@@ -4499,10 +4523,10 @@
         <v>179890</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>231</v>
@@ -4576,7 +4600,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4731,7 +4755,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4743,13 +4767,13 @@
         <v>12113</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -4758,13 +4782,13 @@
         <v>12481</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -4773,13 +4797,13 @@
         <v>24594</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4818,13 @@
         <v>65570</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -4809,13 +4833,13 @@
         <v>94579</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>152</v>
@@ -4824,13 +4848,13 @@
         <v>160149</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4922,13 @@
         <v>27926</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4913,13 +4937,13 @@
         <v>38758</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -4928,13 +4952,13 @@
         <v>66684</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4973,13 @@
         <v>136107</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>160</v>
@@ -4964,13 +4988,13 @@
         <v>177171</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>284</v>
@@ -4979,13 +5003,13 @@
         <v>313278</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,28 +5077,28 @@
         <v>19480</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
       </c>
       <c r="I25" s="7">
-        <v>29705</v>
+        <v>29706</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -5083,13 +5107,13 @@
         <v>49185</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5128,13 @@
         <v>135014</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>171</v>
@@ -5119,13 +5143,13 @@
         <v>184890</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="M26" s="7">
         <v>292</v>
@@ -5134,13 +5158,13 @@
         <v>319905</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,7 +5191,7 @@
         <v>198</v>
       </c>
       <c r="I27" s="7">
-        <v>214595</v>
+        <v>214596</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -5208,13 +5232,13 @@
         <v>108419</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>144</v>
@@ -5223,13 +5247,13 @@
         <v>150978</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>245</v>
@@ -5238,13 +5262,13 @@
         <v>259397</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5283,13 @@
         <v>637556</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>889</v>
@@ -5274,13 +5298,13 @@
         <v>957126</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>1472</v>
@@ -5289,13 +5313,13 @@
         <v>1594681</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45E4B1B-9172-42A4-8687-D20381587A67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1934146-A6A1-415F-952D-6156AFB73012}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5416,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5523,13 @@
         <v>8426</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5514,13 +5538,13 @@
         <v>19007</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5529,13 +5553,13 @@
         <v>27434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5574,13 @@
         <v>59327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -5565,13 +5589,13 @@
         <v>74693</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>126</v>
@@ -5580,13 +5604,13 @@
         <v>134019</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5678,13 @@
         <v>12807</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5669,13 +5693,13 @@
         <v>28121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -5684,13 +5708,13 @@
         <v>40928</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5729,13 @@
         <v>90828</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>132</v>
@@ -5720,13 +5744,13 @@
         <v>146898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>217</v>
@@ -5735,13 +5759,13 @@
         <v>237726</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,7 +5821,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5809,13 +5833,13 @@
         <v>5093</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5824,13 +5848,13 @@
         <v>10588</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -5839,13 +5863,13 @@
         <v>15680</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5884,13 @@
         <v>63877</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -5875,13 +5899,13 @@
         <v>88752</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>155</v>
@@ -5890,13 +5914,13 @@
         <v>152630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,7 +5976,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5964,13 +5988,13 @@
         <v>17595</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5979,13 +6003,13 @@
         <v>30782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -5994,13 +6018,13 @@
         <v>48377</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6039,13 @@
         <v>67372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>94</v>
@@ -6030,13 +6054,13 @@
         <v>101052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>161</v>
@@ -6045,13 +6069,13 @@
         <v>168424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,7 +6131,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6119,13 +6143,13 @@
         <v>3426</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6134,13 +6158,13 @@
         <v>5929</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -6149,13 +6173,13 @@
         <v>9356</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6194,13 @@
         <v>24081</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -6185,13 +6209,13 @@
         <v>41865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -6200,13 +6224,13 @@
         <v>65945</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,7 +6286,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6274,13 +6298,13 @@
         <v>10480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>291</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -6289,13 +6313,13 @@
         <v>15240</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -6304,13 +6328,13 @@
         <v>25720</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6349,13 @@
         <v>95497</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>109</v>
@@ -6340,13 +6364,13 @@
         <v>114196</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>202</v>
@@ -6355,13 +6379,13 @@
         <v>209692</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6453,13 @@
         <v>30489</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -6444,13 +6468,13 @@
         <v>33911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -6459,13 +6483,13 @@
         <v>64400</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6504,13 @@
         <v>116511</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>123</v>
@@ -6495,13 +6519,13 @@
         <v>135208</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>228</v>
@@ -6510,13 +6534,13 @@
         <v>251719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6608,13 @@
         <v>18648</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -6599,13 +6623,13 @@
         <v>36788</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -6614,13 +6638,13 @@
         <v>55436</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6659,13 @@
         <v>191802</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>201</v>
@@ -6650,13 +6674,13 @@
         <v>224106</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -6665,13 +6689,13 @@
         <v>415909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6763,13 @@
         <v>106963</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>206</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H28" s="7">
         <v>164</v>
@@ -6754,13 +6778,13 @@
         <v>180367</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -6769,13 +6793,13 @@
         <v>287330</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6814,13 @@
         <v>709295</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>214</v>
       </c>
       <c r="H29" s="7">
         <v>861</v>
@@ -6805,13 +6829,13 @@
         <v>926769</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="M29" s="7">
         <v>1541</v>
@@ -6820,13 +6844,13 @@
         <v>1636064</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>391</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,7 +6930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D871F6-1A43-4FBD-A558-FEBAD8863412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD470A74-85C5-47DE-8271-55929B8239BA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7030,13 +7054,13 @@
         <v>7188</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -7045,13 +7069,13 @@
         <v>17752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -7060,13 +7084,13 @@
         <v>24940</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7105,13 @@
         <v>50871</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>97</v>
@@ -7096,13 +7120,13 @@
         <v>51565</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -7111,13 +7135,13 @@
         <v>102436</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7209,13 @@
         <v>29258</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>498</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>54</v>
@@ -7200,13 +7224,13 @@
         <v>38615</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
@@ -7215,13 +7239,13 @@
         <v>67872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7260,13 @@
         <v>48277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>67</v>
@@ -7251,13 +7275,13 @@
         <v>55783</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>106</v>
@@ -7266,13 +7290,13 @@
         <v>104061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,7 +7352,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7340,13 +7364,13 @@
         <v>15792</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -7355,13 +7379,13 @@
         <v>16198</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>131</v>
+        <v>519</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -7370,13 +7394,13 @@
         <v>31990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7415,13 @@
         <v>47763</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H11" s="7">
         <v>85</v>
@@ -7406,13 +7430,13 @@
         <v>57981</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>140</v>
+        <v>529</v>
       </c>
       <c r="M11" s="7">
         <v>140</v>
@@ -7421,13 +7445,13 @@
         <v>105744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,7 +7507,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7495,13 +7519,13 @@
         <v>35815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -7510,13 +7534,13 @@
         <v>45804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -7525,13 +7549,13 @@
         <v>81620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7570,13 @@
         <v>32613</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="H14" s="7">
         <v>82</v>
@@ -7561,13 +7585,13 @@
         <v>72244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -7576,13 +7600,13 @@
         <v>104856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,7 +7662,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7650,13 +7674,13 @@
         <v>6719</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -7665,13 +7689,13 @@
         <v>10664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -7680,13 +7704,13 @@
         <v>17383</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7725,13 @@
         <v>13586</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -7716,13 +7740,13 @@
         <v>18443</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -7731,13 +7755,13 @@
         <v>32029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,7 +7817,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7805,13 +7829,13 @@
         <v>6707</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -7820,13 +7844,13 @@
         <v>10138</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>572</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -7835,13 +7859,13 @@
         <v>16845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>566</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7880,13 @@
         <v>47987</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H20" s="7">
         <v>96</v>
@@ -7871,13 +7895,13 @@
         <v>52413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>580</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M20" s="7">
         <v>164</v>
@@ -7886,13 +7910,13 @@
         <v>100400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,13 +7984,13 @@
         <v>55101</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>394</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="H22" s="7">
         <v>120</v>
@@ -7975,13 +7999,13 @@
         <v>83232</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="M22" s="7">
         <v>174</v>
@@ -7990,13 +8014,13 @@
         <v>138333</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +8035,13 @@
         <v>73567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>585</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>164</v>
@@ -8026,13 +8050,13 @@
         <v>111117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="M23" s="7">
         <v>235</v>
@@ -8041,13 +8065,13 @@
         <v>184684</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8115,13 +8139,13 @@
         <v>53412</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>133</v>
@@ -8130,13 +8154,13 @@
         <v>108369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>189</v>
@@ -8145,13 +8169,13 @@
         <v>161782</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8190,13 @@
         <v>107841</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7">
         <v>163</v>
@@ -8181,13 +8205,13 @@
         <v>123538</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="M26" s="7">
         <v>274</v>
@@ -8196,13 +8220,13 @@
         <v>231379</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8270,13 +8294,13 @@
         <v>209991</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="H28" s="7">
         <v>478</v>
@@ -8285,13 +8309,13 @@
         <v>330773</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="M28" s="7">
         <v>702</v>
@@ -8300,13 +8324,13 @@
         <v>540764</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8345,13 @@
         <v>422505</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>794</v>
@@ -8336,13 +8360,13 @@
         <v>543085</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M29" s="7">
         <v>1245</v>
@@ -8351,13 +8375,13 @@
         <v>965590</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
